--- a/Results/Scatterplot_Kruskal.xlsx
+++ b/Results/Scatterplot_Kruskal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathe\Documents\APA - Final\T-APA\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC2EAF88-5C04-4463-BEBF-1E2920C3BD42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F616A92-65C6-4BD3-A1A2-9C1A9E3A0BDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FDCB2B9-8B4B-4898-81B4-FD1E7200EC3F}"/>
   </bookViews>
@@ -40,9 +40,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,9 +77,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6358,7 +6369,7 @@
   <dimension ref="A1:D789"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6368,14 +6379,15 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6386,7 +6398,7 @@
       <c r="B2" s="1">
         <v>28.65</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6397,7 +6409,7 @@
       <c r="B3" s="1">
         <v>27.55</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6408,7 +6420,7 @@
       <c r="B4" s="1">
         <v>28.35</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6419,7 +6431,7 @@
       <c r="B5" s="1">
         <v>28.8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6430,7 +6442,7 @@
       <c r="B6" s="1">
         <v>28.05</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6441,7 +6453,7 @@
       <c r="B7" s="1">
         <v>28.45</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6452,7 +6464,7 @@
       <c r="B8" s="1">
         <v>29.15</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6463,7 +6475,7 @@
       <c r="B9" s="1">
         <v>27.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6474,7 +6486,7 @@
       <c r="B10" s="1">
         <v>26.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6485,7 +6497,7 @@
       <c r="B11" s="1">
         <v>27.35</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6496,7 +6508,7 @@
       <c r="B12" s="1">
         <v>27.85</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6507,7 +6519,7 @@
       <c r="B13" s="1">
         <v>28.4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6518,7 +6530,7 @@
       <c r="B14" s="1">
         <v>28.65</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6529,7 +6541,7 @@
       <c r="B15" s="1">
         <v>25.1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6540,7 +6552,7 @@
       <c r="B16" s="1">
         <v>25.95</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6551,7 +6563,7 @@
       <c r="B17" s="1">
         <v>26.5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6562,7 +6574,7 @@
       <c r="B18" s="1">
         <v>27</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6573,7 +6585,7 @@
       <c r="B19" s="1">
         <v>28</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6584,7 +6596,7 @@
       <c r="B20" s="1">
         <v>28.7</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6595,7 +6607,7 @@
       <c r="B21" s="1">
         <v>27.4</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6606,7 +6618,7 @@
       <c r="B22" s="1">
         <v>27.7</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6617,7 +6629,7 @@
       <c r="B23" s="1">
         <v>28.35</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6628,7 +6640,7 @@
       <c r="B24" s="1">
         <v>28.45</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6639,7 +6651,7 @@
       <c r="B25" s="1">
         <v>27.25</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6650,7 +6662,7 @@
       <c r="B26" s="1">
         <v>26.55</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6661,7 +6673,7 @@
       <c r="B27" s="1">
         <v>26.35</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6672,7 +6684,7 @@
       <c r="B28" s="1">
         <v>25.9</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6683,7 +6695,7 @@
       <c r="B29" s="1">
         <v>25.05</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6694,7 +6706,7 @@
       <c r="B30" s="1">
         <v>24.05</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6705,7 +6717,7 @@
       <c r="B31" s="1">
         <v>24.5</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6716,7 +6728,7 @@
       <c r="B32" s="1">
         <v>25.2</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6727,7 +6739,7 @@
       <c r="B33" s="1">
         <v>25.15</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6738,7 +6750,7 @@
       <c r="B34" s="1">
         <v>25.95</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6749,7 +6761,7 @@
       <c r="B35" s="1">
         <v>26.6</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6760,7 +6772,7 @@
       <c r="B36" s="1">
         <v>27.25</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6771,7 +6783,7 @@
       <c r="B37" s="1">
         <v>27.8</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6782,7 +6794,7 @@
       <c r="B38" s="1">
         <v>28.25</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6793,7 +6805,7 @@
       <c r="B39" s="1">
         <v>27.45</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6804,7 +6816,7 @@
       <c r="B40" s="1">
         <v>27.05</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6815,7 +6827,7 @@
       <c r="B41" s="1">
         <v>27.2</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6826,7 +6838,7 @@
       <c r="B42" s="1">
         <v>26.8</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6837,7 +6849,7 @@
       <c r="B43" s="1">
         <v>27.4</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6848,7 +6860,7 @@
       <c r="B44" s="1">
         <v>26.85</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6859,7 +6871,7 @@
       <c r="B45" s="1">
         <v>26.5</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6870,7 +6882,7 @@
       <c r="B46" s="1">
         <v>26.3</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6881,7 +6893,7 @@
       <c r="B47" s="1">
         <v>26.3</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6892,7 +6904,7 @@
       <c r="B48" s="1">
         <v>25.85</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6903,7 +6915,7 @@
       <c r="B49" s="1">
         <v>25.65</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6914,7 +6926,7 @@
       <c r="B50" s="1">
         <v>25.55</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6925,7 +6937,7 @@
       <c r="B51" s="1">
         <v>25.05</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6936,7 +6948,7 @@
       <c r="B52" s="1">
         <v>24.6</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6947,7 +6959,7 @@
       <c r="B53" s="1">
         <v>24.7</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6958,7 +6970,7 @@
       <c r="B54" s="1">
         <v>24.35</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6969,7 +6981,7 @@
       <c r="B55" s="1">
         <v>23.9</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6980,7 +6992,7 @@
       <c r="B56" s="1">
         <v>23.55</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>139</v>
       </c>
     </row>
@@ -6991,7 +7003,7 @@
       <c r="B57" s="1">
         <v>23.35</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7002,7 +7014,7 @@
       <c r="B58" s="1">
         <v>23.9</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7013,7 +7025,7 @@
       <c r="B59" s="1">
         <v>23.9</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7024,7 +7036,7 @@
       <c r="B60" s="1">
         <v>24.75</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7035,7 +7047,7 @@
       <c r="B61" s="1">
         <v>25.45</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7046,7 +7058,7 @@
       <c r="B62" s="1">
         <v>25.75</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7057,7 +7069,7 @@
       <c r="B63" s="1">
         <v>26</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7068,7 +7080,7 @@
       <c r="B64" s="1">
         <v>26.95</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7079,7 +7091,7 @@
       <c r="B65" s="1">
         <v>25.8</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7090,7 +7102,7 @@
       <c r="B66" s="1">
         <v>26.1</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7101,7 +7113,7 @@
       <c r="B67" s="1">
         <v>25.4</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7112,7 +7124,7 @@
       <c r="B68" s="1">
         <v>25.25</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7123,7 +7135,7 @@
       <c r="B69" s="1">
         <v>24.7</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7134,7 +7146,7 @@
       <c r="B70" s="1">
         <v>25.05</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7145,7 +7157,7 @@
       <c r="B71" s="1">
         <v>25.55</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7156,7 +7168,7 @@
       <c r="B72" s="1">
         <v>24.8</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7167,7 +7179,7 @@
       <c r="B73" s="1">
         <v>24.3</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7178,7 +7190,7 @@
       <c r="B74" s="1">
         <v>24.25</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7189,7 +7201,7 @@
       <c r="B75" s="1">
         <v>24.2</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7200,7 +7212,7 @@
       <c r="B76" s="1">
         <v>24</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7211,7 +7223,7 @@
       <c r="B77" s="1">
         <v>24.25</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7222,7 +7234,7 @@
       <c r="B78" s="1">
         <v>23.3</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7233,7 +7245,7 @@
       <c r="B79" s="1">
         <v>23.05</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7244,7 +7256,7 @@
       <c r="B80" s="1">
         <v>22.75</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7255,7 +7267,7 @@
       <c r="B81" s="1">
         <v>23.4</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7266,7 +7278,7 @@
       <c r="B82" s="1">
         <v>23.55</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7277,7 +7289,7 @@
       <c r="B83" s="1">
         <v>23.7</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7288,7 +7300,7 @@
       <c r="B84" s="1">
         <v>23.25</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7299,7 +7311,7 @@
       <c r="B85" s="1">
         <v>23.1</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7310,7 +7322,7 @@
       <c r="B86" s="1">
         <v>22.55</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7321,7 +7333,7 @@
       <c r="B87" s="1">
         <v>22.6</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7332,7 +7344,7 @@
       <c r="B88" s="1">
         <v>22.6</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7343,7 +7355,7 @@
       <c r="B89" s="1">
         <v>22.1</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7354,7 +7366,7 @@
       <c r="B90" s="1">
         <v>21.85</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7365,7 +7377,7 @@
       <c r="B91" s="1">
         <v>21.2</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7376,7 +7388,7 @@
       <c r="B92" s="1">
         <v>20.350000000000001</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7387,7 +7399,7 @@
       <c r="B93" s="1">
         <v>20.399999999999999</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7398,7 +7410,7 @@
       <c r="B94" s="1">
         <v>20.75</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7409,7 +7421,7 @@
       <c r="B95" s="1">
         <v>21.95</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7420,7 +7432,7 @@
       <c r="B96" s="1">
         <v>21.95</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7431,7 +7443,7 @@
       <c r="B97" s="1">
         <v>21.15</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7442,7 +7454,7 @@
       <c r="B98" s="1">
         <v>21.95</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7453,7 +7465,7 @@
       <c r="B99" s="1">
         <v>21.55</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7464,7 +7476,7 @@
       <c r="B100" s="1">
         <v>21.2</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7475,7 +7487,7 @@
       <c r="B101" s="1">
         <v>20.65</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7486,7 +7498,7 @@
       <c r="B102" s="1">
         <v>19.8</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7497,7 +7509,7 @@
       <c r="B103" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7508,7 +7520,7 @@
       <c r="B104" s="1">
         <v>20.2</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7519,7 +7531,7 @@
       <c r="B105" s="1">
         <v>19.649999999999999</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7530,7 +7542,7 @@
       <c r="B106" s="1">
         <v>19.05</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7541,7 +7553,7 @@
       <c r="B107" s="1">
         <v>18.25</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7552,7 +7564,7 @@
       <c r="B108" s="1">
         <v>19.100000000000001</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7563,7 +7575,7 @@
       <c r="B109" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7574,7 +7586,7 @@
       <c r="B110" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7585,7 +7597,7 @@
       <c r="B111" s="1">
         <v>18.2</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7596,7 +7608,7 @@
       <c r="B112" s="1">
         <v>20.05</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7607,7 +7619,7 @@
       <c r="B113" s="1">
         <v>19.45</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7618,7 +7630,7 @@
       <c r="B114" s="1">
         <v>18.5</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7629,7 +7641,7 @@
       <c r="B115" s="1">
         <v>18.8</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7640,7 +7652,7 @@
       <c r="B116" s="1">
         <v>18.2</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7651,7 +7663,7 @@
       <c r="B117" s="1">
         <v>17.7</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7662,7 +7674,7 @@
       <c r="B118" s="1">
         <v>17.649999999999999</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7673,7 +7685,7 @@
       <c r="B119" s="1">
         <v>17.2</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7684,7 +7696,7 @@
       <c r="B120" s="1">
         <v>17.2</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7695,7 +7707,7 @@
       <c r="B121" s="1">
         <v>16.75</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7706,7 +7718,7 @@
       <c r="B122" s="1">
         <v>20.9</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7717,7 +7729,7 @@
       <c r="B123" s="1">
         <v>21.3</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7728,7 +7740,7 @@
       <c r="B124" s="1">
         <v>21.9</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7739,7 +7751,7 @@
       <c r="B125" s="1">
         <v>22.5</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7750,7 +7762,7 @@
       <c r="B126" s="1">
         <v>22.8</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7761,7 +7773,7 @@
       <c r="B127" s="1">
         <v>22.65</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7772,7 +7784,7 @@
       <c r="B128" s="1">
         <v>22.2</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7783,7 +7795,7 @@
       <c r="B129" s="1">
         <v>21.9</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7794,7 +7806,7 @@
       <c r="B130" s="1">
         <v>22.3</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7805,7 +7817,7 @@
       <c r="B131" s="1">
         <v>22.85</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7816,7 +7828,7 @@
       <c r="B132" s="1">
         <v>23.45</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7827,7 +7839,7 @@
       <c r="B133" s="1">
         <v>23.4</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7838,7 +7850,7 @@
       <c r="B134" s="1">
         <v>22.75</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7849,7 +7861,7 @@
       <c r="B135" s="1">
         <v>22.15</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7860,7 +7872,7 @@
       <c r="B136" s="1">
         <v>22.05</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7871,7 +7883,7 @@
       <c r="B137" s="1">
         <v>21.5</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7882,7 +7894,7 @@
       <c r="B138" s="1">
         <v>21.05</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7893,7 +7905,7 @@
       <c r="B139" s="1">
         <v>21.3</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7904,7 +7916,7 @@
       <c r="B140" s="1">
         <v>20.7</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7915,7 +7927,7 @@
       <c r="B141" s="1">
         <v>20.6</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7926,7 +7938,7 @@
       <c r="B142" s="1">
         <v>19.649999999999999</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7937,7 +7949,7 @@
       <c r="B143" s="1">
         <v>19.8</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7948,7 +7960,7 @@
       <c r="B144" s="1">
         <v>20.350000000000001</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7959,7 +7971,7 @@
       <c r="B145" s="1">
         <v>20.7</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7970,7 +7982,7 @@
       <c r="B146" s="1">
         <v>21.6</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7981,7 +7993,7 @@
       <c r="B147" s="1">
         <v>21.3</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <v>146</v>
       </c>
     </row>
@@ -7992,7 +8004,7 @@
       <c r="B148" s="1">
         <v>20.75</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8003,7 +8015,7 @@
       <c r="B149" s="1">
         <v>20</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8014,7 +8026,7 @@
       <c r="B150" s="1">
         <v>19.850000000000001</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8025,7 +8037,7 @@
       <c r="B151" s="1">
         <v>19</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8036,7 +8048,7 @@
       <c r="B152" s="1">
         <v>18.649999999999999</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8047,7 +8059,7 @@
       <c r="B153" s="1">
         <v>18.149999999999999</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8058,7 +8070,7 @@
       <c r="B154" s="1">
         <v>18.3</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8069,7 +8081,7 @@
       <c r="B155" s="1">
         <v>19.25</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8080,7 +8092,7 @@
       <c r="B156" s="1">
         <v>18.8</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8091,7 +8103,7 @@
       <c r="B157" s="1">
         <v>19.75</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8102,7 +8114,7 @@
       <c r="B158" s="1">
         <v>18.100000000000001</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8113,7 +8125,7 @@
       <c r="B159" s="1">
         <v>17.5</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8124,7 +8136,7 @@
       <c r="B160" s="1">
         <v>17.25</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8135,7 +8147,7 @@
       <c r="B161" s="1">
         <v>17.5</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8146,7 +8158,7 @@
       <c r="B162" s="1">
         <v>17.399999999999999</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8157,7 +8169,7 @@
       <c r="B163" s="1">
         <v>18.149999999999999</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8168,7 +8180,7 @@
       <c r="B164" s="1">
         <v>18.649999999999999</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8179,7 +8191,7 @@
       <c r="B165" s="1">
         <v>19.25</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8190,7 +8202,7 @@
       <c r="B166" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8201,7 +8213,7 @@
       <c r="B167" s="1">
         <v>18.2</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="1">
         <v>166</v>
       </c>
     </row>
@@ -8212,7 +8224,7 @@
       <c r="B168" s="1">
         <v>17.149999999999999</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="1">
         <v>166</v>
       </c>
     </row>
@@ -8223,7 +8235,7 @@
       <c r="B169" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8234,7 +8246,7 @@
       <c r="B170" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8245,7 +8257,7 @@
       <c r="B171" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8256,7 +8268,7 @@
       <c r="B172" s="1">
         <v>13.7</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8267,7 +8279,7 @@
       <c r="B173" s="1">
         <v>13.35</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8278,7 +8290,7 @@
       <c r="B174" s="1">
         <v>12.7</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8289,7 +8301,7 @@
       <c r="B175" s="1">
         <v>12.1</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8300,7 +8312,7 @@
       <c r="B176" s="1">
         <v>12.9</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8311,7 +8323,7 @@
       <c r="B177" s="1">
         <v>13.25</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8322,7 +8334,7 @@
       <c r="B178" s="1">
         <v>13.2</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8333,7 +8345,7 @@
       <c r="B179" s="1">
         <v>13.45</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8344,7 +8356,7 @@
       <c r="B180" s="1">
         <v>12.55</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8355,7 +8367,7 @@
       <c r="B181" s="1">
         <v>12.85</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8366,7 +8378,7 @@
       <c r="B182" s="1">
         <v>12.25</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8377,7 +8389,7 @@
       <c r="B183" s="1">
         <v>11.9</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8388,7 +8400,7 @@
       <c r="B184" s="1">
         <v>11.35</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8399,7 +8411,7 @@
       <c r="B185" s="1">
         <v>11.2</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8410,7 +8422,7 @@
       <c r="B186" s="1">
         <v>11.75</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8421,7 +8433,7 @@
       <c r="B187" s="1">
         <v>12.35</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8432,7 +8444,7 @@
       <c r="B188" s="1">
         <v>12.45</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8443,7 +8455,7 @@
       <c r="B189" s="1">
         <v>12.5</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8454,7 +8466,7 @@
       <c r="B190" s="1">
         <v>12.1</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8465,7 +8477,7 @@
       <c r="B191" s="1">
         <v>11.85</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8476,7 +8488,7 @@
       <c r="B192" s="1">
         <v>11.95</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8487,7 +8499,7 @@
       <c r="B193" s="1">
         <v>11.5</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8498,7 +8510,7 @@
       <c r="B194" s="1">
         <v>10.9</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8509,7 +8521,7 @@
       <c r="B195" s="1">
         <v>10.7</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8520,7 +8532,7 @@
       <c r="B196" s="1">
         <v>10.3</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8531,7 +8543,7 @@
       <c r="B197" s="1">
         <v>10.25</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8542,7 +8554,7 @@
       <c r="B198" s="1">
         <v>10.050000000000001</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8553,7 +8565,7 @@
       <c r="B199" s="1">
         <v>10.5</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8564,7 +8576,7 @@
       <c r="B200" s="1">
         <v>11.1</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8575,7 +8587,7 @@
       <c r="B201" s="1">
         <v>11.2</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8586,7 +8598,7 @@
       <c r="B202" s="1">
         <v>11.4</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8597,7 +8609,7 @@
       <c r="B203" s="1">
         <v>10.55</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8608,7 +8620,7 @@
       <c r="B204" s="1">
         <v>10.9</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8619,7 +8631,7 @@
       <c r="B205" s="1">
         <v>10.5</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8630,7 +8642,7 @@
       <c r="B206" s="1">
         <v>11</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8641,7 +8653,7 @@
       <c r="B207" s="1">
         <v>10.55</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8652,7 +8664,7 @@
       <c r="B208" s="1">
         <v>10</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8663,7 +8675,7 @@
       <c r="B209" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8674,7 +8686,7 @@
       <c r="B210" s="1">
         <v>10.85</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8685,7 +8697,7 @@
       <c r="B211" s="1">
         <v>8.65</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8696,7 +8708,7 @@
       <c r="B212" s="1">
         <v>9.1</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8707,7 +8719,7 @@
       <c r="B213" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8718,7 +8730,7 @@
       <c r="B214" s="1">
         <v>10.65</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8729,7 +8741,7 @@
       <c r="B215" s="1">
         <v>11.7</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8740,7 +8752,7 @@
       <c r="B216" s="1">
         <v>11.1</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8751,7 +8763,7 @@
       <c r="B217" s="1">
         <v>11.75</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8762,7 +8774,7 @@
       <c r="B218" s="1">
         <v>11.8</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8773,7 +8785,7 @@
       <c r="B219" s="1">
         <v>12.45</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8784,7 +8796,7 @@
       <c r="B220" s="1">
         <v>12.9</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8795,7 +8807,7 @@
       <c r="B221" s="1">
         <v>12.6</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8806,7 +8818,7 @@
       <c r="B222" s="1">
         <v>12</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8817,7 +8829,7 @@
       <c r="B223" s="1">
         <v>12.2</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8828,7 +8840,7 @@
       <c r="B224" s="1">
         <v>11.7</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8839,7 +8851,7 @@
       <c r="B225" s="1">
         <v>11.15</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8850,7 +8862,7 @@
       <c r="B226" s="1">
         <v>11.35</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8861,7 +8873,7 @@
       <c r="B227" s="1">
         <v>10.75</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8872,7 +8884,7 @@
       <c r="B228" s="1">
         <v>10.45</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8883,7 +8895,7 @@
       <c r="B229" s="1">
         <v>10.1</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8894,7 +8906,7 @@
       <c r="B230" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8905,7 +8917,7 @@
       <c r="B231" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8916,7 +8928,7 @@
       <c r="B232" s="1">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8927,7 +8939,7 @@
       <c r="B233" s="1">
         <v>8.4499999999999993</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8938,7 +8950,7 @@
       <c r="B234" s="1">
         <v>7.7</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8949,7 +8961,7 @@
       <c r="B235" s="1">
         <v>6.75</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8960,7 +8972,7 @@
       <c r="B236" s="1">
         <v>7.95</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8971,7 +8983,7 @@
       <c r="B237" s="1">
         <v>8.4499999999999993</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8982,7 +8994,7 @@
       <c r="B238" s="1">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="1">
         <v>432</v>
       </c>
     </row>
@@ -8993,7 +9005,7 @@
       <c r="B239" s="1">
         <v>9.35</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9004,7 +9016,7 @@
       <c r="B240" s="1">
         <v>10.050000000000001</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9015,7 +9027,7 @@
       <c r="B241" s="1">
         <v>7.5</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9026,7 +9038,7 @@
       <c r="B242" s="1">
         <v>6.9</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9037,7 +9049,7 @@
       <c r="B243" s="1">
         <v>6.75</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9048,7 +9060,7 @@
       <c r="B244" s="1">
         <v>7.1</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9059,7 +9071,7 @@
       <c r="B245" s="1">
         <v>7.6</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9070,7 +9082,7 @@
       <c r="B246" s="1">
         <v>7.6</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9081,7 +9093,7 @@
       <c r="B247" s="1">
         <v>7.95</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9092,7 +9104,7 @@
       <c r="B248" s="1">
         <v>8.25</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9103,7 +9115,7 @@
       <c r="B249" s="1">
         <v>9</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9114,7 +9126,7 @@
       <c r="B250" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9125,7 +9137,7 @@
       <c r="B251" s="1">
         <v>9.5500000000000007</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9136,7 +9148,7 @@
       <c r="B252" s="1">
         <v>10.25</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9147,7 +9159,7 @@
       <c r="B253" s="1">
         <v>10.55</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9158,7 +9170,7 @@
       <c r="B254" s="1">
         <v>10.85</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9169,7 +9181,7 @@
       <c r="B255" s="1">
         <v>11.5</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9180,7 +9192,7 @@
       <c r="B256" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9191,7 +9203,7 @@
       <c r="B257" s="1">
         <v>10.1</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9202,7 +9214,7 @@
       <c r="B258" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9213,7 +9225,7 @@
       <c r="B259" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9224,7 +9236,7 @@
       <c r="B260" s="1">
         <v>8.65</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9235,7 +9247,7 @@
       <c r="B261" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9246,7 +9258,7 @@
       <c r="B262" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9257,7 +9269,7 @@
       <c r="B263" s="1">
         <v>8.25</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9268,7 +9280,7 @@
       <c r="B264" s="1">
         <v>7.8</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9279,7 +9291,7 @@
       <c r="B265" s="1">
         <v>7.5</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9290,7 +9302,7 @@
       <c r="B266" s="1">
         <v>7.45</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9301,7 +9313,7 @@
       <c r="B267" s="1">
         <v>6.95</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9312,7 +9324,7 @@
       <c r="B268" s="1">
         <v>6.7</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9323,7 +9335,7 @@
       <c r="B269" s="1">
         <v>6.95</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9334,7 +9346,7 @@
       <c r="B270" s="1">
         <v>6.2</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9345,7 +9357,7 @@
       <c r="B271" s="1">
         <v>6.3</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9356,7 +9368,7 @@
       <c r="B272" s="1">
         <v>5.85</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9367,7 +9379,7 @@
       <c r="B273" s="1">
         <v>5.05</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9378,7 +9390,7 @@
       <c r="B274" s="1">
         <v>5.55</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9389,7 +9401,7 @@
       <c r="B275" s="1">
         <v>5.4</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9400,7 +9412,7 @@
       <c r="B276" s="1">
         <v>5.8</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9411,7 +9423,7 @@
       <c r="B277" s="1">
         <v>5.7</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9422,7 +9434,7 @@
       <c r="B278" s="1">
         <v>5.9</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9433,7 +9445,7 @@
       <c r="B279" s="1">
         <v>5.3</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9444,7 +9456,7 @@
       <c r="B280" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9455,7 +9467,7 @@
       <c r="B281" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9466,7 +9478,7 @@
       <c r="B282" s="1">
         <v>4.75</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9477,7 +9489,7 @@
       <c r="B283" s="1">
         <v>4.05</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9488,7 +9500,7 @@
       <c r="B284" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9499,7 +9511,7 @@
       <c r="B285" s="1">
         <v>3.45</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9510,7 +9522,7 @@
       <c r="B286" s="1">
         <v>3.7</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9521,7 +9533,7 @@
       <c r="B287" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9532,7 +9544,7 @@
       <c r="B288" s="1">
         <v>4.95</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9543,7 +9555,7 @@
       <c r="B289" s="1">
         <v>3</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9554,7 +9566,7 @@
       <c r="B290" s="1">
         <v>3.15</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9565,7 +9577,7 @@
       <c r="B291" s="1">
         <v>3.65</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9576,7 +9588,7 @@
       <c r="B292" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9587,7 +9599,7 @@
       <c r="B293" s="1">
         <v>5.05</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9598,7 +9610,7 @@
       <c r="B294" s="1">
         <v>5.75</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9609,7 +9621,7 @@
       <c r="B295" s="1">
         <v>6.55</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9620,7 +9632,7 @@
       <c r="B296" s="1">
         <v>7.1</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9631,7 +9643,7 @@
       <c r="B297" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D297">
+      <c r="D297" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9642,7 +9654,7 @@
       <c r="B298" s="1">
         <v>2.4</v>
       </c>
-      <c r="D298">
+      <c r="D298" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9653,7 +9665,7 @@
       <c r="B299" s="1">
         <v>3.05</v>
       </c>
-      <c r="D299">
+      <c r="D299" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9664,7 +9676,7 @@
       <c r="B300" s="1">
         <v>3.4</v>
       </c>
-      <c r="D300">
+      <c r="D300" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9675,7 +9687,7 @@
       <c r="B301" s="1">
         <v>3.5</v>
       </c>
-      <c r="D301">
+      <c r="D301" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9686,7 +9698,7 @@
       <c r="B302" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D302">
+      <c r="D302" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9697,7 +9709,7 @@
       <c r="B303" s="1">
         <v>4.5</v>
       </c>
-      <c r="D303">
+      <c r="D303" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9708,7 +9720,7 @@
       <c r="B304" s="1">
         <v>2.7</v>
       </c>
-      <c r="D304">
+      <c r="D304" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9719,7 +9731,7 @@
       <c r="B305" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9730,7 +9742,7 @@
       <c r="B306" s="1">
         <v>2.8</v>
       </c>
-      <c r="D306">
+      <c r="D306" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9741,7 +9753,7 @@
       <c r="B307" s="1">
         <v>3.55</v>
       </c>
-      <c r="D307">
+      <c r="D307" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9752,7 +9764,7 @@
       <c r="B308" s="1">
         <v>4</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9763,7 +9775,7 @@
       <c r="B309" s="1">
         <v>4.75</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9774,7 +9786,7 @@
       <c r="B310" s="1">
         <v>5.05</v>
       </c>
-      <c r="D310">
+      <c r="D310" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9785,7 +9797,7 @@
       <c r="B311" s="1">
         <v>5.5</v>
       </c>
-      <c r="D311">
+      <c r="D311" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9796,7 +9808,7 @@
       <c r="B312" s="1">
         <v>5.95</v>
       </c>
-      <c r="D312">
+      <c r="D312" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9807,7 +9819,7 @@
       <c r="B313" s="1">
         <v>6.75</v>
       </c>
-      <c r="D313">
+      <c r="D313" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9818,7 +9830,7 @@
       <c r="B314" s="1">
         <v>6.35</v>
       </c>
-      <c r="D314">
+      <c r="D314" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9829,7 +9841,7 @@
       <c r="B315" s="1">
         <v>5.9</v>
       </c>
-      <c r="D315">
+      <c r="D315" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9840,7 +9852,7 @@
       <c r="B316" s="1">
         <v>5.35</v>
       </c>
-      <c r="D316">
+      <c r="D316" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9851,7 +9863,7 @@
       <c r="B317" s="1">
         <v>4.55</v>
       </c>
-      <c r="D317">
+      <c r="D317" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9862,7 +9874,7 @@
       <c r="B318" s="1">
         <v>4.2</v>
       </c>
-      <c r="D318">
+      <c r="D318" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9873,7 +9885,7 @@
       <c r="B319" s="1">
         <v>4.75</v>
       </c>
-      <c r="D319">
+      <c r="D319" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9884,7 +9896,7 @@
       <c r="B320" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D320">
+      <c r="D320" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9895,7 +9907,7 @@
       <c r="B321" s="1">
         <v>4.8</v>
       </c>
-      <c r="D321">
+      <c r="D321" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9906,7 +9918,7 @@
       <c r="B322" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D322">
+      <c r="D322" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9917,7 +9929,7 @@
       <c r="B323" s="1">
         <v>4.3</v>
       </c>
-      <c r="D323">
+      <c r="D323" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9928,7 +9940,7 @@
       <c r="B324" s="1">
         <v>3.7</v>
       </c>
-      <c r="D324">
+      <c r="D324" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9939,7 +9951,7 @@
       <c r="B325" s="1">
         <v>3.05</v>
       </c>
-      <c r="D325">
+      <c r="D325" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9950,7 +9962,7 @@
       <c r="B326" s="1">
         <v>2.8</v>
       </c>
-      <c r="D326">
+      <c r="D326" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9961,7 +9973,7 @@
       <c r="B327" s="1">
         <v>2.15</v>
       </c>
-      <c r="D327">
+      <c r="D327" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9972,7 +9984,7 @@
       <c r="B328" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="D328">
+      <c r="D328" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9983,7 +9995,7 @@
       <c r="B329" s="1">
         <v>1.95</v>
       </c>
-      <c r="D329">
+      <c r="D329" s="1">
         <v>432</v>
       </c>
     </row>
@@ -9994,7 +10006,7 @@
       <c r="B330" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D330">
+      <c r="D330" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10005,7 +10017,7 @@
       <c r="B331" s="1">
         <v>3.05</v>
       </c>
-      <c r="D331">
+      <c r="D331" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10016,7 +10028,7 @@
       <c r="B332" s="1">
         <v>3.45</v>
       </c>
-      <c r="D332">
+      <c r="D332" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10027,7 +10039,7 @@
       <c r="B333" s="1">
         <v>3.6</v>
       </c>
-      <c r="D333">
+      <c r="D333" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10038,7 +10050,7 @@
       <c r="B334" s="1">
         <v>3.2</v>
       </c>
-      <c r="D334">
+      <c r="D334" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10049,7 +10061,7 @@
       <c r="B335" s="1">
         <v>2.65</v>
       </c>
-      <c r="D335">
+      <c r="D335" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10060,7 +10072,7 @@
       <c r="B336" s="1">
         <v>2.65</v>
       </c>
-      <c r="D336">
+      <c r="D336" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10071,7 +10083,7 @@
       <c r="B337" s="1">
         <v>2.1</v>
       </c>
-      <c r="D337">
+      <c r="D337" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10082,7 +10094,7 @@
       <c r="B338" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="D338">
+      <c r="D338" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10093,7 +10105,7 @@
       <c r="B339" s="1">
         <v>2.8</v>
       </c>
-      <c r="D339">
+      <c r="D339" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10104,7 +10116,7 @@
       <c r="B340" s="1">
         <v>3.25</v>
       </c>
-      <c r="D340">
+      <c r="D340" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10115,7 +10127,7 @@
       <c r="B341" s="1">
         <v>3.9</v>
       </c>
-      <c r="D341">
+      <c r="D341" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10126,7 +10138,7 @@
       <c r="B342" s="1">
         <v>4.2</v>
       </c>
-      <c r="D342">
+      <c r="D342" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10137,7 +10149,7 @@
       <c r="B343" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10148,7 +10160,7 @@
       <c r="B344" s="1">
         <v>4.75</v>
       </c>
-      <c r="D344">
+      <c r="D344" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10159,7 +10171,7 @@
       <c r="B345" s="1">
         <v>5.15</v>
       </c>
-      <c r="D345">
+      <c r="D345" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10170,7 +10182,7 @@
       <c r="B346" s="1">
         <v>4.55</v>
       </c>
-      <c r="D346">
+      <c r="D346" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10181,7 +10193,7 @@
       <c r="B347" s="1">
         <v>5.4</v>
       </c>
-      <c r="D347">
+      <c r="D347" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10192,7 +10204,7 @@
       <c r="B348" s="1">
         <v>5.7</v>
       </c>
-      <c r="D348">
+      <c r="D348" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10203,7 +10215,7 @@
       <c r="B349" s="1">
         <v>6.05</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10214,7 +10226,7 @@
       <c r="B350" s="1">
         <v>6.5</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10225,7 +10237,7 @@
       <c r="B351" s="1">
         <v>6.85</v>
       </c>
-      <c r="D351">
+      <c r="D351" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10236,7 +10248,7 @@
       <c r="B352" s="1">
         <v>7.15</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10247,7 +10259,7 @@
       <c r="B353" s="1">
         <v>7.75</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10258,7 +10270,7 @@
       <c r="B354" s="1">
         <v>7.95</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10269,7 +10281,7 @@
       <c r="B355" s="1">
         <v>3.4</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10280,7 +10292,7 @@
       <c r="B356" s="1">
         <v>3.45</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10291,7 +10303,7 @@
       <c r="B357" s="1">
         <v>2.85</v>
       </c>
-      <c r="D357">
+      <c r="D357" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10302,7 +10314,7 @@
       <c r="B358" s="1">
         <v>2.65</v>
       </c>
-      <c r="D358">
+      <c r="D358" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10313,7 +10325,7 @@
       <c r="B359" s="1">
         <v>3.25</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10324,7 +10336,7 @@
       <c r="B360" s="1">
         <v>3.5</v>
       </c>
-      <c r="D360">
+      <c r="D360" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10335,7 +10347,7 @@
       <c r="B361" s="1">
         <v>3.75</v>
       </c>
-      <c r="D361">
+      <c r="D361" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10346,7 +10358,7 @@
       <c r="B362" s="1">
         <v>4.05</v>
       </c>
-      <c r="D362">
+      <c r="D362" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10357,7 +10369,7 @@
       <c r="B363" s="1">
         <v>4.3</v>
       </c>
-      <c r="D363">
+      <c r="D363" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10368,7 +10380,7 @@
       <c r="B364" s="1">
         <v>4.7</v>
       </c>
-      <c r="D364">
+      <c r="D364" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10379,7 +10391,7 @@
       <c r="B365" s="1">
         <v>5.15</v>
       </c>
-      <c r="D365">
+      <c r="D365" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10390,7 +10402,7 @@
       <c r="B366" s="1">
         <v>5.05</v>
       </c>
-      <c r="D366">
+      <c r="D366" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10401,7 +10413,7 @@
       <c r="B367" s="1">
         <v>5.5</v>
       </c>
-      <c r="D367">
+      <c r="D367" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10412,7 +10424,7 @@
       <c r="B368" s="1">
         <v>5.65</v>
       </c>
-      <c r="D368">
+      <c r="D368" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10423,7 +10435,7 @@
       <c r="B369" s="1">
         <v>5.75</v>
       </c>
-      <c r="D369">
+      <c r="D369" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10434,7 +10446,7 @@
       <c r="B370" s="1">
         <v>5.75</v>
       </c>
-      <c r="D370">
+      <c r="D370" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10445,7 +10457,7 @@
       <c r="B371" s="1">
         <v>5.95</v>
       </c>
-      <c r="D371">
+      <c r="D371" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10456,7 +10468,7 @@
       <c r="B372" s="1">
         <v>6</v>
       </c>
-      <c r="D372">
+      <c r="D372" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10467,7 +10479,7 @@
       <c r="B373" s="1">
         <v>6.6</v>
       </c>
-      <c r="D373">
+      <c r="D373" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10478,7 +10490,7 @@
       <c r="B374" s="1">
         <v>7.05</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10489,7 +10501,7 @@
       <c r="B375" s="1">
         <v>7.4</v>
       </c>
-      <c r="D375">
+      <c r="D375" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10500,7 +10512,7 @@
       <c r="B376" s="1">
         <v>7.3</v>
       </c>
-      <c r="D376">
+      <c r="D376" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10511,7 +10523,7 @@
       <c r="B377" s="1">
         <v>7.35</v>
       </c>
-      <c r="D377">
+      <c r="D377" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10522,7 +10534,7 @@
       <c r="B378" s="1">
         <v>7.75</v>
       </c>
-      <c r="D378">
+      <c r="D378" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10533,7 +10545,7 @@
       <c r="B379" s="1">
         <v>8.25</v>
       </c>
-      <c r="D379">
+      <c r="D379" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10544,7 +10556,7 @@
       <c r="B380" s="1">
         <v>8.6</v>
       </c>
-      <c r="D380">
+      <c r="D380" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10555,7 +10567,7 @@
       <c r="B381" s="1">
         <v>9</v>
       </c>
-      <c r="D381">
+      <c r="D381" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10566,7 +10578,7 @@
       <c r="B382" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D382">
+      <c r="D382" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10577,7 +10589,7 @@
       <c r="B383" s="1">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D383">
+      <c r="D383" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10588,7 +10600,7 @@
       <c r="B384" s="1">
         <v>9.6</v>
       </c>
-      <c r="D384">
+      <c r="D384" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10599,7 +10611,7 @@
       <c r="B385" s="1">
         <v>9.75</v>
       </c>
-      <c r="D385">
+      <c r="D385" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10610,7 +10622,7 @@
       <c r="B386" s="1">
         <v>9.6</v>
       </c>
-      <c r="D386">
+      <c r="D386" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10621,7 +10633,7 @@
       <c r="B387" s="1">
         <v>9.9</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10632,7 +10644,7 @@
       <c r="B388" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D388">
+      <c r="D388" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10643,7 +10655,7 @@
       <c r="B389" s="1">
         <v>8.5500000000000007</v>
       </c>
-      <c r="D389">
+      <c r="D389" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10654,7 +10666,7 @@
       <c r="B390" s="1">
         <v>8.1</v>
       </c>
-      <c r="D390">
+      <c r="D390" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10665,7 +10677,7 @@
       <c r="B391" s="1">
         <v>8.35</v>
       </c>
-      <c r="D391">
+      <c r="D391" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10676,7 +10688,7 @@
       <c r="B392" s="1">
         <v>7.6</v>
       </c>
-      <c r="D392">
+      <c r="D392" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10687,7 +10699,7 @@
       <c r="B393" s="1">
         <v>6.6</v>
       </c>
-      <c r="D393">
+      <c r="D393" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10698,7 +10710,7 @@
       <c r="B394" s="1">
         <v>6.95</v>
       </c>
-      <c r="D394">
+      <c r="D394" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10709,7 +10721,7 @@
       <c r="B395" s="1">
         <v>7.5</v>
       </c>
-      <c r="D395">
+      <c r="D395" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10720,7 +10732,7 @@
       <c r="B396" s="1">
         <v>6.35</v>
       </c>
-      <c r="D396">
+      <c r="D396" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10731,7 +10743,7 @@
       <c r="B397" s="1">
         <v>5.7</v>
       </c>
-      <c r="D397">
+      <c r="D397" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10742,7 +10754,7 @@
       <c r="B398" s="1">
         <v>4.8499999999999996</v>
       </c>
-      <c r="D398">
+      <c r="D398" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10753,7 +10765,7 @@
       <c r="B399" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D399">
+      <c r="D399" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10764,7 +10776,7 @@
       <c r="B400" s="1">
         <v>3.35</v>
       </c>
-      <c r="D400">
+      <c r="D400" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10775,7 +10787,7 @@
       <c r="B401" s="1">
         <v>3.8</v>
       </c>
-      <c r="D401">
+      <c r="D401" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10786,7 +10798,7 @@
       <c r="B402" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D402">
+      <c r="D402" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10797,7 +10809,7 @@
       <c r="B403" s="1">
         <v>4.75</v>
       </c>
-      <c r="D403">
+      <c r="D403" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10808,7 +10820,7 @@
       <c r="B404" s="1">
         <v>5.2</v>
       </c>
-      <c r="D404">
+      <c r="D404" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10819,7 +10831,7 @@
       <c r="B405" s="1">
         <v>4.55</v>
       </c>
-      <c r="D405">
+      <c r="D405" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10830,7 +10842,7 @@
       <c r="B406" s="1">
         <v>5.05</v>
       </c>
-      <c r="D406">
+      <c r="D406" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10841,7 +10853,7 @@
       <c r="B407" s="1">
         <v>5.3</v>
       </c>
-      <c r="D407">
+      <c r="D407" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10852,7 +10864,7 @@
       <c r="B408" s="1">
         <v>5.75</v>
       </c>
-      <c r="D408">
+      <c r="D408" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10863,7 +10875,7 @@
       <c r="B409" s="1">
         <v>5.75</v>
       </c>
-      <c r="D409">
+      <c r="D409" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10874,7 +10886,7 @@
       <c r="B410" s="1">
         <v>6.2</v>
       </c>
-      <c r="D410">
+      <c r="D410" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10885,7 +10897,7 @@
       <c r="B411" s="1">
         <v>6.55</v>
       </c>
-      <c r="D411">
+      <c r="D411" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10896,7 +10908,7 @@
       <c r="B412" s="1">
         <v>7.15</v>
       </c>
-      <c r="D412">
+      <c r="D412" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10907,7 +10919,7 @@
       <c r="B413" s="1">
         <v>7.65</v>
       </c>
-      <c r="D413">
+      <c r="D413" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10918,7 +10930,7 @@
       <c r="B414" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D414">
+      <c r="D414" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10929,7 +10941,7 @@
       <c r="B415" s="1">
         <v>8.65</v>
       </c>
-      <c r="D415">
+      <c r="D415" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10940,7 +10952,7 @@
       <c r="B416" s="1">
         <v>9.0500000000000007</v>
       </c>
-      <c r="D416">
+      <c r="D416" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10951,7 +10963,7 @@
       <c r="B417" s="1">
         <v>9.5500000000000007</v>
       </c>
-      <c r="D417">
+      <c r="D417" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10962,7 +10974,7 @@
       <c r="B418" s="1">
         <v>10</v>
       </c>
-      <c r="D418">
+      <c r="D418" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10973,7 +10985,7 @@
       <c r="B419" s="1">
         <v>10.35</v>
       </c>
-      <c r="D419">
+      <c r="D419" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10984,7 +10996,7 @@
       <c r="B420" s="1">
         <v>10.85</v>
       </c>
-      <c r="D420">
+      <c r="D420" s="1">
         <v>432</v>
       </c>
     </row>
@@ -10995,7 +11007,7 @@
       <c r="B421" s="1">
         <v>10.65</v>
       </c>
-      <c r="D421">
+      <c r="D421" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11006,7 +11018,7 @@
       <c r="B422" s="1">
         <v>10.55</v>
       </c>
-      <c r="D422">
+      <c r="D422" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11017,7 +11029,7 @@
       <c r="B423" s="1">
         <v>11.1</v>
       </c>
-      <c r="D423">
+      <c r="D423" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11028,7 +11040,7 @@
       <c r="B424" s="1">
         <v>11.3</v>
       </c>
-      <c r="D424">
+      <c r="D424" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11039,7 +11051,7 @@
       <c r="B425" s="1">
         <v>11.9</v>
       </c>
-      <c r="D425">
+      <c r="D425" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11050,7 +11062,7 @@
       <c r="B426" s="1">
         <v>12</v>
       </c>
-      <c r="D426">
+      <c r="D426" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11061,7 +11073,7 @@
       <c r="B427" s="1">
         <v>12.5</v>
       </c>
-      <c r="D427">
+      <c r="D427" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11072,7 +11084,7 @@
       <c r="B428" s="1">
         <v>11.65</v>
       </c>
-      <c r="D428">
+      <c r="D428" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11083,7 +11095,7 @@
       <c r="B429" s="1">
         <v>11.05</v>
       </c>
-      <c r="D429">
+      <c r="D429" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11094,7 +11106,7 @@
       <c r="B430" s="1">
         <v>10.55</v>
       </c>
-      <c r="D430">
+      <c r="D430" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11105,7 +11117,7 @@
       <c r="B431" s="1">
         <v>9.65</v>
       </c>
-      <c r="D431">
+      <c r="D431" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11116,7 +11128,7 @@
       <c r="B432" s="1">
         <v>9.4</v>
       </c>
-      <c r="D432">
+      <c r="D432" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11127,7 +11139,7 @@
       <c r="B433" s="1">
         <v>9.9499999999999993</v>
       </c>
-      <c r="D433">
+      <c r="D433" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11138,7 +11150,7 @@
       <c r="B434" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="D434">
+      <c r="D434" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11149,7 +11161,7 @@
       <c r="B435" s="1">
         <v>12.2</v>
       </c>
-      <c r="D435">
+      <c r="D435" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11160,7 +11172,7 @@
       <c r="B436" s="1">
         <v>12.25</v>
       </c>
-      <c r="D436">
+      <c r="D436" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11171,7 +11183,7 @@
       <c r="B437" s="1">
         <v>11.6</v>
       </c>
-      <c r="D437">
+      <c r="D437" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11182,7 +11194,7 @@
       <c r="B438" s="1">
         <v>11.15</v>
       </c>
-      <c r="D438">
+      <c r="D438" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11193,7 +11205,7 @@
       <c r="B439" s="1">
         <v>10.65</v>
       </c>
-      <c r="D439">
+      <c r="D439" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11204,7 +11216,7 @@
       <c r="B440" s="1">
         <v>11.65</v>
       </c>
-      <c r="D440">
+      <c r="D440" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11215,7 +11227,7 @@
       <c r="B441" s="1">
         <v>11.15</v>
       </c>
-      <c r="D441">
+      <c r="D441" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11226,7 +11238,7 @@
       <c r="B442" s="1">
         <v>10.7</v>
       </c>
-      <c r="D442">
+      <c r="D442" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11237,7 +11249,7 @@
       <c r="B443" s="1">
         <v>10.050000000000001</v>
       </c>
-      <c r="D443">
+      <c r="D443" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11248,7 +11260,7 @@
       <c r="B444" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="D444">
+      <c r="D444" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11259,7 +11271,7 @@
       <c r="B445" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D445">
+      <c r="D445" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11270,7 +11282,7 @@
       <c r="B446" s="1">
         <v>9.4499999999999993</v>
       </c>
-      <c r="D446">
+      <c r="D446" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11281,7 +11293,7 @@
       <c r="B447" s="1">
         <v>9.25</v>
       </c>
-      <c r="D447">
+      <c r="D447" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11292,7 +11304,7 @@
       <c r="B448" s="1">
         <v>8.75</v>
       </c>
-      <c r="D448">
+      <c r="D448" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11303,7 +11315,7 @@
       <c r="B449" s="1">
         <v>8.75</v>
       </c>
-      <c r="D449">
+      <c r="D449" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11314,7 +11326,7 @@
       <c r="B450" s="1">
         <v>8</v>
       </c>
-      <c r="D450">
+      <c r="D450" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11325,7 +11337,7 @@
       <c r="B451" s="1">
         <v>8.65</v>
       </c>
-      <c r="D451">
+      <c r="D451" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11336,7 +11348,7 @@
       <c r="B452" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D452">
+      <c r="D452" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11347,7 +11359,7 @@
       <c r="B453" s="1">
         <v>7.55</v>
       </c>
-      <c r="D453">
+      <c r="D453" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11358,7 +11370,7 @@
       <c r="B454" s="1">
         <v>6.75</v>
       </c>
-      <c r="D454">
+      <c r="D454" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11369,7 +11381,7 @@
       <c r="B455" s="1">
         <v>6.45</v>
       </c>
-      <c r="D455">
+      <c r="D455" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11380,7 +11392,7 @@
       <c r="B456" s="1">
         <v>6.65</v>
       </c>
-      <c r="D456">
+      <c r="D456" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11391,7 +11403,7 @@
       <c r="B457" s="1">
         <v>7.05</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11402,7 +11414,7 @@
       <c r="B458" s="1">
         <v>7.35</v>
       </c>
-      <c r="D458">
+      <c r="D458" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11413,7 +11425,7 @@
       <c r="B459" s="1">
         <v>7.9</v>
       </c>
-      <c r="D459">
+      <c r="D459" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11424,7 +11436,7 @@
       <c r="B460" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D460">
+      <c r="D460" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11435,7 +11447,7 @@
       <c r="B461" s="1">
         <v>8.4499999999999993</v>
       </c>
-      <c r="D461">
+      <c r="D461" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11446,7 +11458,7 @@
       <c r="B462" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D462">
+      <c r="D462" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11457,7 +11469,7 @@
       <c r="B463" s="1">
         <v>9.35</v>
       </c>
-      <c r="D463">
+      <c r="D463" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11468,7 +11480,7 @@
       <c r="B464" s="1">
         <v>10.050000000000001</v>
       </c>
-      <c r="D464">
+      <c r="D464" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11479,7 +11491,7 @@
       <c r="B465" s="1">
         <v>10.9</v>
       </c>
-      <c r="D465">
+      <c r="D465" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11490,7 +11502,7 @@
       <c r="B466" s="1">
         <v>9.85</v>
       </c>
-      <c r="D466">
+      <c r="D466" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11501,7 +11513,7 @@
       <c r="B467" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D467">
+      <c r="D467" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11512,7 +11524,7 @@
       <c r="B468" s="1">
         <v>9.1</v>
       </c>
-      <c r="D468">
+      <c r="D468" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11523,7 +11535,7 @@
       <c r="B469" s="1">
         <v>8.85</v>
       </c>
-      <c r="D469">
+      <c r="D469" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11534,7 +11546,7 @@
       <c r="B470" s="1">
         <v>8.25</v>
       </c>
-      <c r="D470">
+      <c r="D470" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11545,7 +11557,7 @@
       <c r="B471" s="1">
         <v>7.95</v>
       </c>
-      <c r="D471">
+      <c r="D471" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11556,7 +11568,7 @@
       <c r="B472" s="1">
         <v>7.85</v>
       </c>
-      <c r="D472">
+      <c r="D472" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11567,7 +11579,7 @@
       <c r="B473" s="1">
         <v>7.35</v>
       </c>
-      <c r="D473">
+      <c r="D473" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11578,7 +11590,7 @@
       <c r="B474" s="1">
         <v>6.9</v>
       </c>
-      <c r="D474">
+      <c r="D474" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11589,7 +11601,7 @@
       <c r="B475" s="1">
         <v>6.5</v>
       </c>
-      <c r="D475">
+      <c r="D475" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11600,7 +11612,7 @@
       <c r="B476" s="1">
         <v>5.7</v>
       </c>
-      <c r="D476">
+      <c r="D476" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11611,7 +11623,7 @@
       <c r="B477" s="1">
         <v>5.65</v>
       </c>
-      <c r="D477">
+      <c r="D477" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11622,7 +11634,7 @@
       <c r="B478" s="1">
         <v>6.4</v>
       </c>
-      <c r="D478">
+      <c r="D478" s="1">
         <v>432</v>
       </c>
     </row>
@@ -11633,7 +11645,7 @@
       <c r="B479" s="1">
         <v>3.5</v>
       </c>
-      <c r="D479">
+      <c r="D479" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11644,7 +11656,7 @@
       <c r="B480" s="1">
         <v>3.85</v>
       </c>
-      <c r="D480">
+      <c r="D480" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11655,7 +11667,7 @@
       <c r="B481" s="1">
         <v>3.8</v>
       </c>
-      <c r="D481">
+      <c r="D481" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11666,7 +11678,7 @@
       <c r="B482" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D482">
+      <c r="D482" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11677,7 +11689,7 @@
       <c r="B483" s="1">
         <v>4.75</v>
       </c>
-      <c r="D483">
+      <c r="D483" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11688,7 +11700,7 @@
       <c r="B484" s="1">
         <v>5.65</v>
       </c>
-      <c r="D484">
+      <c r="D484" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11699,7 +11711,7 @@
       <c r="B485" s="1">
         <v>6.1</v>
       </c>
-      <c r="D485">
+      <c r="D485" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11710,7 +11722,7 @@
       <c r="B486" s="1">
         <v>6.7</v>
       </c>
-      <c r="D486">
+      <c r="D486" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11721,7 +11733,7 @@
       <c r="B487" s="1">
         <v>7.4</v>
       </c>
-      <c r="D487">
+      <c r="D487" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11732,7 +11744,7 @@
       <c r="B488" s="1">
         <v>8.15</v>
       </c>
-      <c r="D488">
+      <c r="D488" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11743,7 +11755,7 @@
       <c r="B489" s="1">
         <v>8</v>
       </c>
-      <c r="D489">
+      <c r="D489" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11754,7 +11766,7 @@
       <c r="B490" s="1">
         <v>7.35</v>
       </c>
-      <c r="D490">
+      <c r="D490" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11765,7 +11777,7 @@
       <c r="B491" s="1">
         <v>6.75</v>
       </c>
-      <c r="D491">
+      <c r="D491" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11776,7 +11788,7 @@
       <c r="B492" s="1">
         <v>5.95</v>
       </c>
-      <c r="D492">
+      <c r="D492" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11787,7 +11799,7 @@
       <c r="B493" s="1">
         <v>6.45</v>
       </c>
-      <c r="D493">
+      <c r="D493" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11798,7 +11810,7 @@
       <c r="B494" s="1">
         <v>6</v>
       </c>
-      <c r="D494">
+      <c r="D494" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11809,7 +11821,7 @@
       <c r="B495" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D495">
+      <c r="D495" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11820,7 +11832,7 @@
       <c r="B496" s="1">
         <v>4.8</v>
       </c>
-      <c r="D496">
+      <c r="D496" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11831,7 +11843,7 @@
       <c r="B497" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D497">
+      <c r="D497" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11842,7 +11854,7 @@
       <c r="B498" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D498">
+      <c r="D498" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11853,7 +11865,7 @@
       <c r="B499" s="1">
         <v>5.15</v>
       </c>
-      <c r="D499">
+      <c r="D499" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11864,7 +11876,7 @@
       <c r="B500" s="1">
         <v>5.45</v>
       </c>
-      <c r="D500">
+      <c r="D500" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11875,7 +11887,7 @@
       <c r="B501" s="1">
         <v>5.05</v>
       </c>
-      <c r="D501">
+      <c r="D501" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11886,7 +11898,7 @@
       <c r="B502" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D502">
+      <c r="D502" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11897,7 +11909,7 @@
       <c r="B503" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D503">
+      <c r="D503" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11908,7 +11920,7 @@
       <c r="B504" s="1">
         <v>4.05</v>
       </c>
-      <c r="D504">
+      <c r="D504" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11919,7 +11931,7 @@
       <c r="B505" s="1">
         <v>4.2</v>
       </c>
-      <c r="D505">
+      <c r="D505" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11930,7 +11942,7 @@
       <c r="B506" s="1">
         <v>5.2</v>
       </c>
-      <c r="D506">
+      <c r="D506" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11941,7 +11953,7 @@
       <c r="B507" s="1">
         <v>5.35</v>
       </c>
-      <c r="D507">
+      <c r="D507" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11952,7 +11964,7 @@
       <c r="B508" s="1">
         <v>6.05</v>
       </c>
-      <c r="D508">
+      <c r="D508" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11963,7 +11975,7 @@
       <c r="B509" s="1">
         <v>5.85</v>
       </c>
-      <c r="D509">
+      <c r="D509" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11974,7 +11986,7 @@
       <c r="B510" s="1">
         <v>6.15</v>
       </c>
-      <c r="D510">
+      <c r="D510" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11985,7 +11997,7 @@
       <c r="B511" s="1">
         <v>6.6</v>
       </c>
-      <c r="D511">
+      <c r="D511" s="1">
         <v>707</v>
       </c>
     </row>
@@ -11996,7 +12008,7 @@
       <c r="B512" s="1">
         <v>7.05</v>
       </c>
-      <c r="D512">
+      <c r="D512" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12007,7 +12019,7 @@
       <c r="B513" s="1">
         <v>7.1</v>
       </c>
-      <c r="D513">
+      <c r="D513" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12018,7 +12030,7 @@
       <c r="B514" s="1">
         <v>7.65</v>
       </c>
-      <c r="D514">
+      <c r="D514" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12029,7 +12041,7 @@
       <c r="B515" s="1">
         <v>7.9</v>
       </c>
-      <c r="D515">
+      <c r="D515" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12040,7 +12052,7 @@
       <c r="B516" s="1">
         <v>8.15</v>
       </c>
-      <c r="D516">
+      <c r="D516" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12051,7 +12063,7 @@
       <c r="B517" s="1">
         <v>8.65</v>
       </c>
-      <c r="D517">
+      <c r="D517" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12062,7 +12074,7 @@
       <c r="B518" s="1">
         <v>8.85</v>
       </c>
-      <c r="D518">
+      <c r="D518" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12073,7 +12085,7 @@
       <c r="B519" s="1">
         <v>9</v>
       </c>
-      <c r="D519">
+      <c r="D519" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12084,7 +12096,7 @@
       <c r="B520" s="1">
         <v>9.15</v>
       </c>
-      <c r="D520">
+      <c r="D520" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12095,7 +12107,7 @@
       <c r="B521" s="1">
         <v>9.9</v>
       </c>
-      <c r="D521">
+      <c r="D521" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12106,7 +12118,7 @@
       <c r="B522" s="1">
         <v>9.9499999999999993</v>
       </c>
-      <c r="D522">
+      <c r="D522" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12117,7 +12129,7 @@
       <c r="B523" s="1">
         <v>9.85</v>
       </c>
-      <c r="D523">
+      <c r="D523" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12128,7 +12140,7 @@
       <c r="B524" s="1">
         <v>9.4499999999999993</v>
       </c>
-      <c r="D524">
+      <c r="D524" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12139,7 +12151,7 @@
       <c r="B525" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D525">
+      <c r="D525" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12150,7 +12162,7 @@
       <c r="B526" s="1">
         <v>8.6</v>
       </c>
-      <c r="D526">
+      <c r="D526" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12161,7 +12173,7 @@
       <c r="B527" s="1">
         <v>7.7</v>
       </c>
-      <c r="D527">
+      <c r="D527" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12172,7 +12184,7 @@
       <c r="B528" s="1">
         <v>8</v>
       </c>
-      <c r="D528">
+      <c r="D528" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12183,7 +12195,7 @@
       <c r="B529" s="1">
         <v>7.25</v>
       </c>
-      <c r="D529">
+      <c r="D529" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12194,7 +12206,7 @@
       <c r="B530" s="1">
         <v>6.8</v>
       </c>
-      <c r="D530">
+      <c r="D530" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12205,7 +12217,7 @@
       <c r="B531" s="1">
         <v>7.35</v>
       </c>
-      <c r="D531">
+      <c r="D531" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12216,7 +12228,7 @@
       <c r="B532" s="1">
         <v>7.5</v>
       </c>
-      <c r="D532">
+      <c r="D532" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12227,7 +12239,7 @@
       <c r="B533" s="1">
         <v>7</v>
       </c>
-      <c r="D533">
+      <c r="D533" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12238,7 +12250,7 @@
       <c r="B534" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D534">
+      <c r="D534" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12249,7 +12261,7 @@
       <c r="B535" s="1">
         <v>8.0500000000000007</v>
       </c>
-      <c r="D535">
+      <c r="D535" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12260,7 +12272,7 @@
       <c r="B536" s="1">
         <v>8.65</v>
       </c>
-      <c r="D536">
+      <c r="D536" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12271,7 +12283,7 @@
       <c r="B537" s="1">
         <v>9.1</v>
       </c>
-      <c r="D537">
+      <c r="D537" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12282,7 +12294,7 @@
       <c r="B538" s="1">
         <v>9.1</v>
       </c>
-      <c r="D538">
+      <c r="D538" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12293,7 +12305,7 @@
       <c r="B539" s="1">
         <v>8.85</v>
       </c>
-      <c r="D539">
+      <c r="D539" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12304,7 +12316,7 @@
       <c r="B540" s="1">
         <v>9.4</v>
       </c>
-      <c r="D540">
+      <c r="D540" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12315,7 +12327,7 @@
       <c r="B541" s="1">
         <v>9.5</v>
       </c>
-      <c r="D541">
+      <c r="D541" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12326,7 +12338,7 @@
       <c r="B542" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D542">
+      <c r="D542" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12337,7 +12349,7 @@
       <c r="B543" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D543">
+      <c r="D543" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12348,7 +12360,7 @@
       <c r="B544" s="1">
         <v>9.65</v>
       </c>
-      <c r="D544">
+      <c r="D544" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12359,7 +12371,7 @@
       <c r="B545" s="1">
         <v>10.25</v>
       </c>
-      <c r="D545">
+      <c r="D545" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12370,7 +12382,7 @@
       <c r="B546" s="1">
         <v>10.3</v>
       </c>
-      <c r="D546">
+      <c r="D546" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12381,7 +12393,7 @@
       <c r="B547" s="1">
         <v>10.5</v>
       </c>
-      <c r="D547">
+      <c r="D547" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12392,7 +12404,7 @@
       <c r="B548" s="1">
         <v>10.5</v>
       </c>
-      <c r="D548">
+      <c r="D548" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12403,7 +12415,7 @@
       <c r="B549" s="1">
         <v>11.1</v>
       </c>
-      <c r="D549">
+      <c r="D549" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12414,7 +12426,7 @@
       <c r="B550" s="1">
         <v>11.45</v>
       </c>
-      <c r="D550">
+      <c r="D550" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12425,7 +12437,7 @@
       <c r="B551" s="1">
         <v>11.65</v>
       </c>
-      <c r="D551">
+      <c r="D551" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12436,7 +12448,7 @@
       <c r="B552" s="1">
         <v>12.05</v>
       </c>
-      <c r="D552">
+      <c r="D552" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12447,7 +12459,7 @@
       <c r="B553" s="1">
         <v>12</v>
       </c>
-      <c r="D553">
+      <c r="D553" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12458,7 +12470,7 @@
       <c r="B554" s="1">
         <v>11.35</v>
       </c>
-      <c r="D554">
+      <c r="D554" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12469,7 +12481,7 @@
       <c r="B555" s="1">
         <v>11.05</v>
       </c>
-      <c r="D555">
+      <c r="D555" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12480,7 +12492,7 @@
       <c r="B556" s="1">
         <v>11.15</v>
       </c>
-      <c r="D556">
+      <c r="D556" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12491,7 +12503,7 @@
       <c r="B557" s="1">
         <v>11.7</v>
       </c>
-      <c r="D557">
+      <c r="D557" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12502,7 +12514,7 @@
       <c r="B558" s="1">
         <v>12.25</v>
       </c>
-      <c r="D558">
+      <c r="D558" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12513,7 +12525,7 @@
       <c r="B559" s="1">
         <v>12.25</v>
       </c>
-      <c r="D559">
+      <c r="D559" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12524,7 +12536,7 @@
       <c r="B560" s="1">
         <v>12.7</v>
       </c>
-      <c r="D560">
+      <c r="D560" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12535,7 +12547,7 @@
       <c r="B561" s="1">
         <v>12.95</v>
       </c>
-      <c r="D561">
+      <c r="D561" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12546,7 +12558,7 @@
       <c r="B562" s="1">
         <v>13.1</v>
       </c>
-      <c r="D562">
+      <c r="D562" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12557,7 +12569,7 @@
       <c r="B563" s="1">
         <v>13.2</v>
       </c>
-      <c r="D563">
+      <c r="D563" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12568,7 +12580,7 @@
       <c r="B564" s="1">
         <v>12.75</v>
       </c>
-      <c r="D564">
+      <c r="D564" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12579,7 +12591,7 @@
       <c r="B565" s="1">
         <v>12.1</v>
       </c>
-      <c r="D565">
+      <c r="D565" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12590,7 +12602,7 @@
       <c r="B566" s="1">
         <v>11.75</v>
       </c>
-      <c r="D566">
+      <c r="D566" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12601,7 +12613,7 @@
       <c r="B567" s="1">
         <v>10.85</v>
       </c>
-      <c r="D567">
+      <c r="D567" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12612,7 +12624,7 @@
       <c r="B568" s="1">
         <v>11</v>
       </c>
-      <c r="D568">
+      <c r="D568" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12623,7 +12635,7 @@
       <c r="B569" s="1">
         <v>10.1</v>
       </c>
-      <c r="D569">
+      <c r="D569" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12634,7 +12646,7 @@
       <c r="B570" s="1">
         <v>9.85</v>
       </c>
-      <c r="D570">
+      <c r="D570" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12645,7 +12657,7 @@
       <c r="B571" s="1">
         <v>10</v>
       </c>
-      <c r="D571">
+      <c r="D571" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12656,7 +12668,7 @@
       <c r="B572" s="1">
         <v>10.75</v>
       </c>
-      <c r="D572">
+      <c r="D572" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12667,7 +12679,7 @@
       <c r="B573" s="1">
         <v>11.55</v>
       </c>
-      <c r="D573">
+      <c r="D573" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12678,7 +12690,7 @@
       <c r="B574" s="1">
         <v>11.75</v>
       </c>
-      <c r="D574">
+      <c r="D574" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12689,7 +12701,7 @@
       <c r="B575" s="1">
         <v>11.75</v>
       </c>
-      <c r="D575">
+      <c r="D575" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12700,7 +12712,7 @@
       <c r="B576" s="1">
         <v>12.75</v>
       </c>
-      <c r="D576">
+      <c r="D576" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12711,7 +12723,7 @@
       <c r="B577" s="1">
         <v>12.55</v>
       </c>
-      <c r="D577">
+      <c r="D577" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12722,7 +12734,7 @@
       <c r="B578" s="1">
         <v>13.05</v>
       </c>
-      <c r="D578">
+      <c r="D578" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12733,7 +12745,7 @@
       <c r="B579" s="1">
         <v>13.7</v>
       </c>
-      <c r="D579">
+      <c r="D579" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12744,7 +12756,7 @@
       <c r="B580" s="1">
         <v>14.15</v>
       </c>
-      <c r="D580">
+      <c r="D580" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12755,7 +12767,7 @@
       <c r="B581" s="1">
         <v>14.7</v>
       </c>
-      <c r="D581">
+      <c r="D581" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12766,7 +12778,7 @@
       <c r="B582" s="1">
         <v>15.15</v>
       </c>
-      <c r="D582">
+      <c r="D582" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12777,7 +12789,7 @@
       <c r="B583" s="1">
         <v>15.65</v>
       </c>
-      <c r="D583">
+      <c r="D583" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12788,7 +12800,7 @@
       <c r="B584" s="1">
         <v>16.149999999999999</v>
       </c>
-      <c r="D584">
+      <c r="D584" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12799,7 +12811,7 @@
       <c r="B585" s="1">
         <v>16.75</v>
       </c>
-      <c r="D585">
+      <c r="D585" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12810,7 +12822,7 @@
       <c r="B586" s="1">
         <v>17.05</v>
       </c>
-      <c r="D586">
+      <c r="D586" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12821,7 +12833,7 @@
       <c r="B587" s="1">
         <v>17.3</v>
       </c>
-      <c r="D587">
+      <c r="D587" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12832,7 +12844,7 @@
       <c r="B588" s="1">
         <v>17.2</v>
       </c>
-      <c r="D588">
+      <c r="D588" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12843,7 +12855,7 @@
       <c r="B589" s="1">
         <v>17.649999999999999</v>
       </c>
-      <c r="D589">
+      <c r="D589" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12854,7 +12866,7 @@
       <c r="B590" s="1">
         <v>17.5</v>
       </c>
-      <c r="D590">
+      <c r="D590" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12865,7 +12877,7 @@
       <c r="B591" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="D591">
+      <c r="D591" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12876,7 +12888,7 @@
       <c r="B592" s="1">
         <v>18.05</v>
       </c>
-      <c r="D592">
+      <c r="D592" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12887,7 +12899,7 @@
       <c r="B593" s="1">
         <v>18.8</v>
       </c>
-      <c r="D593">
+      <c r="D593" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12898,7 +12910,7 @@
       <c r="B594" s="1">
         <v>18.8</v>
       </c>
-      <c r="D594">
+      <c r="D594" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12909,7 +12921,7 @@
       <c r="B595" s="1">
         <v>19.3</v>
       </c>
-      <c r="D595">
+      <c r="D595" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12920,7 +12932,7 @@
       <c r="B596" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="D596">
+      <c r="D596" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12931,7 +12943,7 @@
       <c r="B597" s="1">
         <v>19.850000000000001</v>
       </c>
-      <c r="D597">
+      <c r="D597" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12942,7 +12954,7 @@
       <c r="B598" s="1">
         <v>20.55</v>
       </c>
-      <c r="D598">
+      <c r="D598" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12953,7 +12965,7 @@
       <c r="B599" s="1">
         <v>20.45</v>
       </c>
-      <c r="D599">
+      <c r="D599" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12964,7 +12976,7 @@
       <c r="B600" s="1">
         <v>20.05</v>
       </c>
-      <c r="D600">
+      <c r="D600" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12975,7 +12987,7 @@
       <c r="B601" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="D601">
+      <c r="D601" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12986,7 +12998,7 @@
       <c r="B602" s="1">
         <v>19.649999999999999</v>
       </c>
-      <c r="D602">
+      <c r="D602" s="1">
         <v>707</v>
       </c>
     </row>
@@ -12997,7 +13009,7 @@
       <c r="B603" s="1">
         <v>18.55</v>
       </c>
-      <c r="D603">
+      <c r="D603" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13008,7 +13020,7 @@
       <c r="B604" s="1">
         <v>18.600000000000001</v>
       </c>
-      <c r="D604">
+      <c r="D604" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13019,7 +13031,7 @@
       <c r="B605" s="1">
         <v>19.100000000000001</v>
       </c>
-      <c r="D605">
+      <c r="D605" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13030,7 +13042,7 @@
       <c r="B606" s="1">
         <v>18.350000000000001</v>
       </c>
-      <c r="D606">
+      <c r="D606" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13041,7 +13053,7 @@
       <c r="B607" s="1">
         <v>17.95</v>
       </c>
-      <c r="D607">
+      <c r="D607" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13052,7 +13064,7 @@
       <c r="B608" s="1">
         <v>17.45</v>
       </c>
-      <c r="D608">
+      <c r="D608" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13063,7 +13075,7 @@
       <c r="B609" s="1">
         <v>17</v>
       </c>
-      <c r="D609">
+      <c r="D609" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13074,7 +13086,7 @@
       <c r="B610" s="1">
         <v>17.350000000000001</v>
       </c>
-      <c r="D610">
+      <c r="D610" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13085,7 +13097,7 @@
       <c r="B611" s="1">
         <v>18.05</v>
       </c>
-      <c r="D611">
+      <c r="D611" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13096,7 +13108,7 @@
       <c r="B612" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="D612">
+      <c r="D612" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13107,7 +13119,7 @@
       <c r="B613" s="1">
         <v>18.850000000000001</v>
       </c>
-      <c r="D613">
+      <c r="D613" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13118,7 +13130,7 @@
       <c r="B614" s="1">
         <v>18.95</v>
       </c>
-      <c r="D614">
+      <c r="D614" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13129,7 +13141,7 @@
       <c r="B615" s="1">
         <v>19.149999999999999</v>
       </c>
-      <c r="D615">
+      <c r="D615" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13140,7 +13152,7 @@
       <c r="B616" s="1">
         <v>19.850000000000001</v>
       </c>
-      <c r="D616">
+      <c r="D616" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13151,7 +13163,7 @@
       <c r="B617" s="1">
         <v>20</v>
       </c>
-      <c r="D617">
+      <c r="D617" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13162,7 +13174,7 @@
       <c r="B618" s="1">
         <v>20.25</v>
       </c>
-      <c r="D618">
+      <c r="D618" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13173,7 +13185,7 @@
       <c r="B619" s="1">
         <v>20.75</v>
       </c>
-      <c r="D619">
+      <c r="D619" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13184,7 +13196,7 @@
       <c r="B620" s="1">
         <v>21.15</v>
       </c>
-      <c r="D620">
+      <c r="D620" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13195,7 +13207,7 @@
       <c r="B621" s="1">
         <v>21.6</v>
       </c>
-      <c r="D621">
+      <c r="D621" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13206,7 +13218,7 @@
       <c r="B622" s="1">
         <v>21.3</v>
       </c>
-      <c r="D622">
+      <c r="D622" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13217,7 +13229,7 @@
       <c r="B623" s="1">
         <v>21.6</v>
       </c>
-      <c r="D623">
+      <c r="D623" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13228,7 +13240,7 @@
       <c r="B624" s="1">
         <v>21.6</v>
       </c>
-      <c r="D624">
+      <c r="D624" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13239,7 +13251,7 @@
       <c r="B625" s="1">
         <v>22.05</v>
       </c>
-      <c r="D625">
+      <c r="D625" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13250,7 +13262,7 @@
       <c r="B626" s="1">
         <v>22</v>
       </c>
-      <c r="D626">
+      <c r="D626" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13261,7 +13273,7 @@
       <c r="B627" s="1">
         <v>22.2</v>
       </c>
-      <c r="D627">
+      <c r="D627" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13272,7 +13284,7 @@
       <c r="B628" s="1">
         <v>22.65</v>
       </c>
-      <c r="D628">
+      <c r="D628" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13283,7 +13295,7 @@
       <c r="B629" s="1">
         <v>23.1</v>
       </c>
-      <c r="D629">
+      <c r="D629" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13294,7 +13306,7 @@
       <c r="B630" s="1">
         <v>23.15</v>
       </c>
-      <c r="D630">
+      <c r="D630" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13305,7 +13317,7 @@
       <c r="B631" s="1">
         <v>22.55</v>
       </c>
-      <c r="D631">
+      <c r="D631" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13316,7 +13328,7 @@
       <c r="B632" s="1">
         <v>23.85</v>
       </c>
-      <c r="D632">
+      <c r="D632" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13327,7 +13339,7 @@
       <c r="B633" s="1">
         <v>24</v>
       </c>
-      <c r="D633">
+      <c r="D633" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13338,7 +13350,7 @@
       <c r="B634" s="1">
         <v>24.15</v>
       </c>
-      <c r="D634">
+      <c r="D634" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13349,7 +13361,7 @@
       <c r="B635" s="1">
         <v>23.7</v>
       </c>
-      <c r="D635">
+      <c r="D635" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13360,7 +13372,7 @@
       <c r="B636" s="1">
         <v>23.15</v>
       </c>
-      <c r="D636">
+      <c r="D636" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13371,7 +13383,7 @@
       <c r="B637" s="1">
         <v>22.05</v>
       </c>
-      <c r="D637">
+      <c r="D637" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13382,7 +13394,7 @@
       <c r="B638" s="1">
         <v>22.55</v>
       </c>
-      <c r="D638">
+      <c r="D638" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13393,7 +13405,7 @@
       <c r="B639" s="1">
         <v>22.25</v>
       </c>
-      <c r="D639">
+      <c r="D639" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13404,7 +13416,7 @@
       <c r="B640" s="1">
         <v>21.9</v>
       </c>
-      <c r="D640">
+      <c r="D640" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13415,7 +13427,7 @@
       <c r="B641" s="1">
         <v>21.3</v>
       </c>
-      <c r="D641">
+      <c r="D641" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13426,7 +13438,7 @@
       <c r="B642" s="1">
         <v>20.75</v>
       </c>
-      <c r="D642">
+      <c r="D642" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13437,7 +13449,7 @@
       <c r="B643" s="1">
         <v>20.399999999999999</v>
       </c>
-      <c r="D643">
+      <c r="D643" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13448,7 +13460,7 @@
       <c r="B644" s="1">
         <v>20</v>
       </c>
-      <c r="D644">
+      <c r="D644" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13459,7 +13471,7 @@
       <c r="B645" s="1">
         <v>19.3</v>
       </c>
-      <c r="D645">
+      <c r="D645" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13470,7 +13482,7 @@
       <c r="B646" s="1">
         <v>18.850000000000001</v>
       </c>
-      <c r="D646">
+      <c r="D646" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13481,7 +13493,7 @@
       <c r="B647" s="1">
         <v>18.55</v>
       </c>
-      <c r="D647">
+      <c r="D647" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13492,7 +13504,7 @@
       <c r="B648" s="1">
         <v>19.350000000000001</v>
       </c>
-      <c r="D648">
+      <c r="D648" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13503,7 +13515,7 @@
       <c r="B649" s="1">
         <v>19.75</v>
       </c>
-      <c r="D649">
+      <c r="D649" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13514,7 +13526,7 @@
       <c r="B650" s="1">
         <v>20</v>
       </c>
-      <c r="D650">
+      <c r="D650" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13525,7 +13537,7 @@
       <c r="B651" s="1">
         <v>19.850000000000001</v>
       </c>
-      <c r="D651">
+      <c r="D651" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13536,7 +13548,7 @@
       <c r="B652" s="1">
         <v>20.6</v>
       </c>
-      <c r="D652">
+      <c r="D652" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13547,7 +13559,7 @@
       <c r="B653" s="1">
         <v>20.55</v>
       </c>
-      <c r="D653">
+      <c r="D653" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13558,7 +13570,7 @@
       <c r="B654" s="1">
         <v>20.65</v>
       </c>
-      <c r="D654">
+      <c r="D654" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13569,7 +13581,7 @@
       <c r="B655" s="1">
         <v>21.25</v>
       </c>
-      <c r="D655">
+      <c r="D655" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13580,7 +13592,7 @@
       <c r="B656" s="1">
         <v>21.05</v>
       </c>
-      <c r="D656">
+      <c r="D656" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13591,7 +13603,7 @@
       <c r="B657" s="1">
         <v>21.3</v>
       </c>
-      <c r="D657">
+      <c r="D657" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13602,7 +13614,7 @@
       <c r="B658" s="1">
         <v>21.5</v>
       </c>
-      <c r="D658">
+      <c r="D658" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13613,7 +13625,7 @@
       <c r="B659" s="1">
         <v>22.05</v>
       </c>
-      <c r="D659">
+      <c r="D659" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13624,7 +13636,7 @@
       <c r="B660" s="1">
         <v>21.75</v>
       </c>
-      <c r="D660">
+      <c r="D660" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13635,7 +13647,7 @@
       <c r="B661" s="1">
         <v>21.95</v>
       </c>
-      <c r="D661">
+      <c r="D661" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13646,7 +13658,7 @@
       <c r="B662" s="1">
         <v>22.3</v>
       </c>
-      <c r="D662">
+      <c r="D662" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13657,7 +13669,7 @@
       <c r="B663" s="1">
         <v>22.9</v>
       </c>
-      <c r="D663">
+      <c r="D663" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13668,7 +13680,7 @@
       <c r="B664" s="1">
         <v>23.25</v>
       </c>
-      <c r="D664">
+      <c r="D664" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13679,7 +13691,7 @@
       <c r="B665" s="1">
         <v>23.8</v>
       </c>
-      <c r="D665">
+      <c r="D665" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13690,7 +13702,7 @@
       <c r="B666" s="1">
         <v>24.1</v>
       </c>
-      <c r="D666">
+      <c r="D666" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13701,7 +13713,7 @@
       <c r="B667" s="1">
         <v>23.5</v>
       </c>
-      <c r="D667">
+      <c r="D667" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13712,7 +13724,7 @@
       <c r="B668" s="1">
         <v>22.9</v>
       </c>
-      <c r="D668">
+      <c r="D668" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13723,7 +13735,7 @@
       <c r="B669" s="1">
         <v>23.3</v>
       </c>
-      <c r="D669">
+      <c r="D669" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13734,7 +13746,7 @@
       <c r="B670" s="1">
         <v>23.35</v>
       </c>
-      <c r="D670">
+      <c r="D670" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13745,7 +13757,7 @@
       <c r="B671" s="1">
         <v>23.7</v>
       </c>
-      <c r="D671">
+      <c r="D671" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13756,7 +13768,7 @@
       <c r="B672" s="1">
         <v>23.9</v>
       </c>
-      <c r="D672">
+      <c r="D672" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13767,7 +13779,7 @@
       <c r="B673" s="1">
         <v>23.95</v>
       </c>
-      <c r="D673">
+      <c r="D673" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13778,7 +13790,7 @@
       <c r="B674" s="1">
         <v>24.1</v>
       </c>
-      <c r="D674">
+      <c r="D674" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13789,7 +13801,7 @@
       <c r="B675" s="1">
         <v>24.7</v>
       </c>
-      <c r="D675">
+      <c r="D675" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13800,7 +13812,7 @@
       <c r="B676" s="1">
         <v>25.3</v>
       </c>
-      <c r="D676">
+      <c r="D676" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13811,7 +13823,7 @@
       <c r="B677" s="1">
         <v>24.9</v>
       </c>
-      <c r="D677">
+      <c r="D677" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13822,7 +13834,7 @@
       <c r="B678" s="1">
         <v>24.85</v>
       </c>
-      <c r="D678">
+      <c r="D678" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13833,7 +13845,7 @@
       <c r="B679" s="1">
         <v>24.45</v>
       </c>
-      <c r="D679">
+      <c r="D679" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13844,7 +13856,7 @@
       <c r="B680" s="1">
         <v>24.7</v>
       </c>
-      <c r="D680">
+      <c r="D680" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13855,7 +13867,7 @@
       <c r="B681" s="1">
         <v>24.45</v>
       </c>
-      <c r="D681">
+      <c r="D681" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13866,7 +13878,7 @@
       <c r="B682" s="1">
         <v>25.2</v>
       </c>
-      <c r="D682">
+      <c r="D682" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13877,7 +13889,7 @@
       <c r="B683" s="1">
         <v>25</v>
       </c>
-      <c r="D683">
+      <c r="D683" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13888,7 +13900,7 @@
       <c r="B684" s="1">
         <v>24.3</v>
       </c>
-      <c r="D684">
+      <c r="D684" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13899,7 +13911,7 @@
       <c r="B685" s="1">
         <v>24.8</v>
       </c>
-      <c r="D685">
+      <c r="D685" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13910,7 +13922,7 @@
       <c r="B686" s="1">
         <v>25.5</v>
       </c>
-      <c r="D686">
+      <c r="D686" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13921,7 +13933,7 @@
       <c r="B687" s="1">
         <v>26.05</v>
       </c>
-      <c r="D687">
+      <c r="D687" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13932,7 +13944,7 @@
       <c r="B688" s="1">
         <v>25.5</v>
       </c>
-      <c r="D688">
+      <c r="D688" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13943,7 +13955,7 @@
       <c r="B689" s="1">
         <v>26</v>
       </c>
-      <c r="D689">
+      <c r="D689" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13954,7 +13966,7 @@
       <c r="B690" s="1">
         <v>26.05</v>
       </c>
-      <c r="D690">
+      <c r="D690" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13965,7 +13977,7 @@
       <c r="B691" s="1">
         <v>26.95</v>
       </c>
-      <c r="D691">
+      <c r="D691" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13976,7 +13988,7 @@
       <c r="B692" s="1">
         <v>26.9</v>
       </c>
-      <c r="D692">
+      <c r="D692" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13987,7 +13999,7 @@
       <c r="B693" s="1">
         <v>27.15</v>
       </c>
-      <c r="D693">
+      <c r="D693" s="1">
         <v>707</v>
       </c>
     </row>
@@ -13998,7 +14010,7 @@
       <c r="B694" s="1">
         <v>27.85</v>
       </c>
-      <c r="D694">
+      <c r="D694" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14009,7 +14021,7 @@
       <c r="B695" s="1">
         <v>27.75</v>
       </c>
-      <c r="D695">
+      <c r="D695" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14020,7 +14032,7 @@
       <c r="B696" s="1">
         <v>28.2</v>
       </c>
-      <c r="D696">
+      <c r="D696" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14031,7 +14043,7 @@
       <c r="B697" s="1">
         <v>27.55</v>
       </c>
-      <c r="D697">
+      <c r="D697" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14042,7 +14054,7 @@
       <c r="B698" s="1">
         <v>27.1</v>
       </c>
-      <c r="D698">
+      <c r="D698" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14053,7 +14065,7 @@
       <c r="B699" s="1">
         <v>26.65</v>
       </c>
-      <c r="D699">
+      <c r="D699" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14064,7 +14076,7 @@
       <c r="B700" s="1">
         <v>25.95</v>
       </c>
-      <c r="D700">
+      <c r="D700" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14075,7 +14087,7 @@
       <c r="B701" s="1">
         <v>25.5</v>
       </c>
-      <c r="D701">
+      <c r="D701" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14086,7 +14098,7 @@
       <c r="B702" s="1">
         <v>26.05</v>
       </c>
-      <c r="D702">
+      <c r="D702" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14097,7 +14109,7 @@
       <c r="B703" s="1">
         <v>26.5</v>
       </c>
-      <c r="D703">
+      <c r="D703" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14108,7 +14120,7 @@
       <c r="B704" s="1">
         <v>27</v>
       </c>
-      <c r="D704">
+      <c r="D704" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14119,7 +14131,7 @@
       <c r="B705" s="1">
         <v>27.35</v>
       </c>
-      <c r="D705">
+      <c r="D705" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14130,7 +14142,7 @@
       <c r="B706" s="1">
         <v>27.95</v>
       </c>
-      <c r="D706">
+      <c r="D706" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14141,7 +14153,7 @@
       <c r="B707" s="1">
         <v>26.85</v>
       </c>
-      <c r="D707">
+      <c r="D707" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14152,7 +14164,7 @@
       <c r="B708" s="1">
         <v>26</v>
       </c>
-      <c r="D708">
+      <c r="D708" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14163,7 +14175,7 @@
       <c r="B709" s="1">
         <v>26.15</v>
       </c>
-      <c r="D709">
+      <c r="D709" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14174,7 +14186,7 @@
       <c r="B710" s="1">
         <v>25.6</v>
       </c>
-      <c r="D710">
+      <c r="D710" s="1">
         <v>707</v>
       </c>
     </row>
@@ -14185,7 +14197,7 @@
       <c r="B711" s="1">
         <v>20.8</v>
       </c>
-      <c r="D711">
+      <c r="D711" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14196,7 +14208,7 @@
       <c r="B712" s="1">
         <v>20.9</v>
       </c>
-      <c r="D712">
+      <c r="D712" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14207,7 +14219,7 @@
       <c r="B713" s="1">
         <v>21.35</v>
       </c>
-      <c r="D713">
+      <c r="D713" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14218,7 +14230,7 @@
       <c r="B714" s="1">
         <v>21.85</v>
       </c>
-      <c r="D714">
+      <c r="D714" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14229,7 +14241,7 @@
       <c r="B715" s="1">
         <v>22.8</v>
       </c>
-      <c r="D715">
+      <c r="D715" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14240,7 +14252,7 @@
       <c r="B716" s="1">
         <v>22.95</v>
       </c>
-      <c r="D716">
+      <c r="D716" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14251,7 +14263,7 @@
       <c r="B717" s="1">
         <v>23</v>
       </c>
-      <c r="D717">
+      <c r="D717" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14262,7 +14274,7 @@
       <c r="B718" s="1">
         <v>22.25</v>
       </c>
-      <c r="D718">
+      <c r="D718" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14273,7 +14285,7 @@
       <c r="B719" s="1">
         <v>21.85</v>
       </c>
-      <c r="D719">
+      <c r="D719" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14284,7 +14296,7 @@
       <c r="B720" s="1">
         <v>21.85</v>
       </c>
-      <c r="D720">
+      <c r="D720" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14295,7 +14307,7 @@
       <c r="B721" s="1">
         <v>21.45</v>
       </c>
-      <c r="D721">
+      <c r="D721" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14306,7 +14318,7 @@
       <c r="B722" s="1">
         <v>21.9</v>
       </c>
-      <c r="D722">
+      <c r="D722" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14317,7 +14329,7 @@
       <c r="B723" s="1">
         <v>22.3</v>
       </c>
-      <c r="D723">
+      <c r="D723" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14328,7 +14340,7 @@
       <c r="B724" s="1">
         <v>22.6</v>
       </c>
-      <c r="D724">
+      <c r="D724" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14339,7 +14351,7 @@
       <c r="B725" s="1">
         <v>22.95</v>
       </c>
-      <c r="D725">
+      <c r="D725" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14350,7 +14362,7 @@
       <c r="B726" s="1">
         <v>22.85</v>
       </c>
-      <c r="D726">
+      <c r="D726" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14361,7 +14373,7 @@
       <c r="B727" s="1">
         <v>23.65</v>
       </c>
-      <c r="D727">
+      <c r="D727" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14372,7 +14384,7 @@
       <c r="B728" s="1">
         <v>23.7</v>
       </c>
-      <c r="D728">
+      <c r="D728" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14383,7 +14395,7 @@
       <c r="B729" s="1">
         <v>24.35</v>
       </c>
-      <c r="D729">
+      <c r="D729" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14394,7 +14406,7 @@
       <c r="B730" s="1">
         <v>23.85</v>
       </c>
-      <c r="D730">
+      <c r="D730" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14405,7 +14417,7 @@
       <c r="B731" s="1">
         <v>24.3</v>
       </c>
-      <c r="D731">
+      <c r="D731" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14416,7 +14428,7 @@
       <c r="B732" s="1">
         <v>24.6</v>
       </c>
-      <c r="D732">
+      <c r="D732" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14427,7 +14439,7 @@
       <c r="B733" s="1">
         <v>25.05</v>
       </c>
-      <c r="D733">
+      <c r="D733" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14438,7 +14450,7 @@
       <c r="B734" s="1">
         <v>25.1</v>
       </c>
-      <c r="D734">
+      <c r="D734" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14449,7 +14461,7 @@
       <c r="B735" s="1">
         <v>24.65</v>
       </c>
-      <c r="D735">
+      <c r="D735" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14460,7 +14472,7 @@
       <c r="B736" s="1">
         <v>23.8</v>
       </c>
-      <c r="D736">
+      <c r="D736" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14471,7 +14483,7 @@
       <c r="B737" s="1">
         <v>23.65</v>
       </c>
-      <c r="D737">
+      <c r="D737" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14482,7 +14494,7 @@
       <c r="B738" s="1">
         <v>23.5</v>
       </c>
-      <c r="D738">
+      <c r="D738" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14493,7 +14505,7 @@
       <c r="B739" s="1">
         <v>24.3</v>
       </c>
-      <c r="D739">
+      <c r="D739" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14504,7 +14516,7 @@
       <c r="B740" s="1">
         <v>24.45</v>
       </c>
-      <c r="D740">
+      <c r="D740" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14515,7 +14527,7 @@
       <c r="B741" s="1">
         <v>24.35</v>
       </c>
-      <c r="D741">
+      <c r="D741" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14526,7 +14538,7 @@
       <c r="B742" s="1">
         <v>25.25</v>
       </c>
-      <c r="D742">
+      <c r="D742" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14537,7 +14549,7 @@
       <c r="B743" s="1">
         <v>23.8</v>
       </c>
-      <c r="D743">
+      <c r="D743" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14548,7 +14560,7 @@
       <c r="B744" s="1">
         <v>23.2</v>
       </c>
-      <c r="D744">
+      <c r="D744" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14559,7 +14571,7 @@
       <c r="B745" s="1">
         <v>22.8</v>
       </c>
-      <c r="D745">
+      <c r="D745" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14570,7 +14582,7 @@
       <c r="B746" s="1">
         <v>22.4</v>
       </c>
-      <c r="D746">
+      <c r="D746" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14581,7 +14593,7 @@
       <c r="B747" s="1">
         <v>21.7</v>
       </c>
-      <c r="D747">
+      <c r="D747" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14592,7 +14604,7 @@
       <c r="B748" s="1">
         <v>21.9</v>
       </c>
-      <c r="D748">
+      <c r="D748" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14603,7 +14615,7 @@
       <c r="B749" s="1">
         <v>21.1</v>
       </c>
-      <c r="D749">
+      <c r="D749" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14614,7 +14626,7 @@
       <c r="B750" s="1">
         <v>22.6</v>
       </c>
-      <c r="D750">
+      <c r="D750" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14625,7 +14637,7 @@
       <c r="B751" s="1">
         <v>21.9</v>
       </c>
-      <c r="D751">
+      <c r="D751" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14636,7 +14648,7 @@
       <c r="B752" s="1">
         <v>22.2</v>
       </c>
-      <c r="D752">
+      <c r="D752" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14647,7 +14659,7 @@
       <c r="B753" s="1">
         <v>22.6</v>
       </c>
-      <c r="D753">
+      <c r="D753" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14658,7 +14670,7 @@
       <c r="B754" s="1">
         <v>23.3</v>
       </c>
-      <c r="D754">
+      <c r="D754" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14669,7 +14681,7 @@
       <c r="B755" s="1">
         <v>23.45</v>
       </c>
-      <c r="D755">
+      <c r="D755" s="1">
         <v>723</v>
       </c>
     </row>
@@ -14680,7 +14692,7 @@
       <c r="B756" s="1">
         <v>2.15</v>
       </c>
-      <c r="D756">
+      <c r="D756" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14691,7 +14703,7 @@
       <c r="B757" s="1">
         <v>1.95</v>
       </c>
-      <c r="D757">
+      <c r="D757" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14702,7 +14714,7 @@
       <c r="B758" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D758">
+      <c r="D758" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14713,7 +14725,7 @@
       <c r="B759" s="1">
         <v>2.4</v>
       </c>
-      <c r="D759">
+      <c r="D759" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14724,7 +14736,7 @@
       <c r="B760" s="1">
         <v>2.7</v>
       </c>
-      <c r="D760">
+      <c r="D760" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14735,7 +14747,7 @@
       <c r="B761" s="1">
         <v>2.9</v>
       </c>
-      <c r="D761">
+      <c r="D761" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14746,7 +14758,7 @@
       <c r="B762" s="1">
         <v>3.35</v>
       </c>
-      <c r="D762">
+      <c r="D762" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14757,7 +14769,7 @@
       <c r="B763" s="1">
         <v>3.45</v>
       </c>
-      <c r="D763">
+      <c r="D763" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14768,7 +14780,7 @@
       <c r="B764" s="1">
         <v>3.45</v>
       </c>
-      <c r="D764">
+      <c r="D764" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14779,7 +14791,7 @@
       <c r="B765" s="1">
         <v>3</v>
       </c>
-      <c r="D765">
+      <c r="D765" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14790,7 +14802,7 @@
       <c r="B766" s="1">
         <v>3.2</v>
       </c>
-      <c r="D766">
+      <c r="D766" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14801,7 +14813,7 @@
       <c r="B767" s="1">
         <v>2.15</v>
       </c>
-      <c r="D767">
+      <c r="D767" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14812,7 +14824,7 @@
       <c r="B768" s="1">
         <v>2.75</v>
       </c>
-      <c r="D768">
+      <c r="D768" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14823,7 +14835,7 @@
       <c r="B769" s="1">
         <v>3.2</v>
       </c>
-      <c r="D769">
+      <c r="D769" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14834,7 +14846,7 @@
       <c r="B770" s="1">
         <v>3.55</v>
       </c>
-      <c r="D770">
+      <c r="D770" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14845,7 +14857,7 @@
       <c r="B771" s="1">
         <v>3.8</v>
       </c>
-      <c r="D771">
+      <c r="D771" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14856,7 +14868,7 @@
       <c r="B772" s="1">
         <v>4</v>
       </c>
-      <c r="D772">
+      <c r="D772" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14867,7 +14879,7 @@
       <c r="B773" s="1">
         <v>4.05</v>
       </c>
-      <c r="D773">
+      <c r="D773" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14878,7 +14890,7 @@
       <c r="B774" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D774">
+      <c r="D774" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14889,7 +14901,7 @@
       <c r="B775" s="1">
         <v>4.45</v>
       </c>
-      <c r="D775">
+      <c r="D775" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14900,7 +14912,7 @@
       <c r="B776" s="1">
         <v>4.8499999999999996</v>
       </c>
-      <c r="D776">
+      <c r="D776" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14911,7 +14923,7 @@
       <c r="B777" s="1">
         <v>4.8</v>
       </c>
-      <c r="D777">
+      <c r="D777" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14922,7 +14934,7 @@
       <c r="B778" s="1">
         <v>5.05</v>
       </c>
-      <c r="D778">
+      <c r="D778" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14933,7 +14945,7 @@
       <c r="B779" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D779">
+      <c r="D779" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14944,7 +14956,7 @@
       <c r="B780" s="1">
         <v>4.25</v>
       </c>
-      <c r="D780">
+      <c r="D780" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14955,7 +14967,7 @@
       <c r="B781" s="1">
         <v>4.3</v>
       </c>
-      <c r="D781">
+      <c r="D781" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14966,7 +14978,7 @@
       <c r="B782" s="1">
         <v>4.5</v>
       </c>
-      <c r="D782">
+      <c r="D782" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14977,7 +14989,7 @@
       <c r="B783" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D783">
+      <c r="D783" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14988,7 +15000,7 @@
       <c r="B784" s="1">
         <v>3.55</v>
       </c>
-      <c r="D784">
+      <c r="D784" s="1">
         <v>786</v>
       </c>
     </row>
@@ -14999,7 +15011,7 @@
       <c r="B785" s="1">
         <v>3.35</v>
       </c>
-      <c r="D785">
+      <c r="D785" s="1">
         <v>786</v>
       </c>
     </row>
@@ -15010,7 +15022,7 @@
       <c r="B786" s="1">
         <v>2.75</v>
       </c>
-      <c r="D786">
+      <c r="D786" s="1">
         <v>786</v>
       </c>
     </row>
@@ -15021,7 +15033,7 @@
       <c r="B787" s="1">
         <v>3.25</v>
       </c>
-      <c r="D787">
+      <c r="D787" s="1">
         <v>786</v>
       </c>
     </row>
@@ -15032,7 +15044,7 @@
       <c r="B788" s="1">
         <v>3.55</v>
       </c>
-      <c r="D788">
+      <c r="D788" s="1">
         <v>786</v>
       </c>
     </row>
@@ -15043,12 +15055,13 @@
       <c r="B789" s="1">
         <v>4</v>
       </c>
-      <c r="D789">
+      <c r="D789" s="1">
         <v>786</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>